--- a/Prices.xlsx
+++ b/Prices.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="72">
+  <si>
+    <t>code</t>
+  </si>
   <si>
     <t>date</t>
   </si>
@@ -25,6 +28,9 @@
     <t>stock</t>
   </si>
   <si>
+    <t>HVL</t>
+  </si>
+  <si>
     <t>12-12-2022</t>
   </si>
   <si>
@@ -218,6 +224,12 @@
   </si>
   <si>
     <t>10-03-2023</t>
+  </si>
+  <si>
+    <t>HVB</t>
+  </si>
+  <si>
+    <t>NBH</t>
   </si>
 </sst>
 </file>
@@ -575,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,915 +603,3087 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4.015222</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>18.109421</v>
+      </c>
+      <c r="E2">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>0.26827</v>
+      </c>
+      <c r="L2">
+        <v>99.98</v>
+      </c>
+      <c r="O2" s="1">
+        <v>64</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>1.592263</v>
+      </c>
+      <c r="S2">
+        <v>24.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>4.010174</v>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>18.811754</v>
+      </c>
+      <c r="E3">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>0.278147</v>
+      </c>
+      <c r="L3">
+        <v>99.97</v>
+      </c>
+      <c r="O3" s="1">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>1.617554</v>
+      </c>
+      <c r="S3">
+        <v>24.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>4.032191</v>
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>19.378872</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>0.280042</v>
+      </c>
+      <c r="L4">
+        <v>99.98</v>
+      </c>
+      <c r="O4" s="1">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>1.62528</v>
+      </c>
+      <c r="S4">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>4.03547</v>
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>19.178153</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>0.272767</v>
+      </c>
+      <c r="L5">
+        <v>99.94</v>
+      </c>
+      <c r="O5" s="1">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>1.630119</v>
+      </c>
+      <c r="S5">
+        <v>20.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>3.981188</v>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>19.204969</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>0.286586</v>
+      </c>
+      <c r="L6">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="O6" s="1">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>1.63199</v>
+      </c>
+      <c r="S6">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>3.970259</v>
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>18.389705</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>0.284239</v>
+      </c>
+      <c r="L7">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="O7" s="1">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>1.672066</v>
+      </c>
+      <c r="S7">
+        <v>31.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>3.945098</v>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>18.814738</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="H8" s="1">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>0.299161</v>
+      </c>
+      <c r="L8">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="O8" s="1">
+        <v>58</v>
+      </c>
+      <c r="P8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8">
+        <v>1.686585</v>
+      </c>
+      <c r="S8">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>3.957902</v>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>19.346291</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>0.290713</v>
+      </c>
+      <c r="L9">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="O9" s="1">
+        <v>57</v>
+      </c>
+      <c r="P9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9">
+        <v>1.709747</v>
+      </c>
+      <c r="S9">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>4.004424</v>
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>20.091058</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>0.287357</v>
+      </c>
+      <c r="L10">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="O10" s="1">
+        <v>56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10">
+        <v>1.726137</v>
+      </c>
+      <c r="S10">
+        <v>31.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>3.975303</v>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>20.942686</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>0.293623</v>
+      </c>
+      <c r="L11">
+        <v>99.98</v>
+      </c>
+      <c r="O11" s="1">
+        <v>55</v>
+      </c>
+      <c r="P11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11">
+        <v>1.731606</v>
+      </c>
+      <c r="S11">
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>3.967633</v>
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>21.29306</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="H12" s="1">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>0.290106</v>
+      </c>
+      <c r="L12">
+        <v>99.98</v>
+      </c>
+      <c r="O12" s="1">
+        <v>54</v>
+      </c>
+      <c r="P12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>1.729859</v>
+      </c>
+      <c r="S12">
+        <v>27.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>3.973425</v>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>19.159044</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>0.289181</v>
+      </c>
+      <c r="L13">
+        <v>99.98</v>
+      </c>
+      <c r="O13" s="1">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>1.735963</v>
+      </c>
+      <c r="S13">
+        <v>27.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>4.020805</v>
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>17.238483</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1">
+        <v>52</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>0.280435</v>
+      </c>
+      <c r="L14">
+        <v>99.97</v>
+      </c>
+      <c r="O14" s="1">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14">
+        <v>1.72815</v>
+      </c>
+      <c r="S14">
+        <v>26.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>3.957309</v>
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>16.135612</v>
+      </c>
+      <c r="E15">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <v>0.274954</v>
+      </c>
+      <c r="L15">
+        <v>99.97</v>
+      </c>
+      <c r="O15" s="1">
+        <v>51</v>
+      </c>
+      <c r="P15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15">
+        <v>1.696229</v>
+      </c>
+      <c r="S15">
+        <v>24.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>4.016899</v>
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>16.810066</v>
+      </c>
+      <c r="E16">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>0.283182</v>
+      </c>
+      <c r="L16">
+        <v>99.97</v>
+      </c>
+      <c r="O16" s="1">
+        <v>50</v>
+      </c>
+      <c r="P16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16">
+        <v>1.701602</v>
+      </c>
+      <c r="S16">
+        <v>24.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>4.018671</v>
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>17.019304</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>0.278833</v>
+      </c>
+      <c r="L17">
+        <v>99.97</v>
+      </c>
+      <c r="O17" s="1">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>1.713633</v>
+      </c>
+      <c r="S17">
+        <v>26.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>4.016253</v>
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>17.160606</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18">
+        <v>0.28485</v>
+      </c>
+      <c r="L18">
+        <v>99.97</v>
+      </c>
+      <c r="O18" s="1">
+        <v>48</v>
+      </c>
+      <c r="P18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18">
+        <v>1.728753</v>
+      </c>
+      <c r="S18">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>4.054912</v>
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>18.231349</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="H19" s="1">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19">
+        <v>0.279954</v>
+      </c>
+      <c r="L19">
+        <v>99.98</v>
+      </c>
+      <c r="O19" s="1">
+        <v>47</v>
+      </c>
+      <c r="P19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19">
+        <v>1.7329</v>
+      </c>
+      <c r="S19">
+        <v>24.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>4.127285</v>
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>18.325639</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20">
+        <v>0.278163</v>
+      </c>
+      <c r="L20">
+        <v>99.98</v>
+      </c>
+      <c r="O20" s="1">
+        <v>46</v>
+      </c>
+      <c r="P20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20">
+        <v>1.715796</v>
+      </c>
+      <c r="S20">
+        <v>20.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>4.097655</v>
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>18.678196</v>
+      </c>
+      <c r="E21">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>0.254452</v>
+      </c>
+      <c r="L21">
+        <v>99.98</v>
+      </c>
+      <c r="O21" s="1">
+        <v>45</v>
+      </c>
+      <c r="P21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21">
+        <v>1.67808</v>
+      </c>
+      <c r="S21">
+        <v>18.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>4.13633</v>
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>18.929149</v>
+      </c>
+      <c r="E22">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H22" s="1">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>0.262551</v>
+      </c>
+      <c r="L22">
+        <v>99.98</v>
+      </c>
+      <c r="O22" s="1">
+        <v>44</v>
+      </c>
+      <c r="P22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>25</v>
+      </c>
+      <c r="R22">
+        <v>1.659012</v>
+      </c>
+      <c r="S22">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>4.135811</v>
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>19.449978</v>
+      </c>
+      <c r="E23">
+        <v>99.97</v>
+      </c>
+      <c r="H23" s="1">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23">
+        <v>0.254526</v>
+      </c>
+      <c r="L23">
+        <v>83.01000000000001</v>
+      </c>
+      <c r="O23" s="1">
+        <v>43</v>
+      </c>
+      <c r="P23" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23">
+        <v>1.662924</v>
+      </c>
+      <c r="S23">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>4.10729</v>
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
       </c>
       <c r="D24">
+        <v>19.174857</v>
+      </c>
+      <c r="E24">
+        <v>99.97</v>
+      </c>
+      <c r="H24" s="1">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24">
+        <v>0.245888</v>
+      </c>
+      <c r="L24">
+        <v>85.11</v>
+      </c>
+      <c r="O24" s="1">
+        <v>42</v>
+      </c>
+      <c r="P24" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24">
+        <v>1.648378</v>
+      </c>
+      <c r="S24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>4.109425</v>
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
       </c>
       <c r="D25">
+        <v>19.04733</v>
+      </c>
+      <c r="E25">
+        <v>99.97</v>
+      </c>
+      <c r="H25" s="1">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25">
+        <v>0.237904</v>
+      </c>
+      <c r="L25">
+        <v>85.15000000000001</v>
+      </c>
+      <c r="O25" s="1">
+        <v>41</v>
+      </c>
+      <c r="P25" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25">
+        <v>1.649283</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>4.117129</v>
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
       </c>
       <c r="D26">
+        <v>19.404234</v>
+      </c>
+      <c r="E26">
+        <v>99.97</v>
+      </c>
+      <c r="H26" s="1">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26">
+        <v>0.253631</v>
+      </c>
+      <c r="L26">
+        <v>85.94</v>
+      </c>
+      <c r="O26" s="1">
+        <v>40</v>
+      </c>
+      <c r="P26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26">
+        <v>1.650291</v>
+      </c>
+      <c r="S26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>4.162915</v>
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
       </c>
       <c r="D27">
+        <v>20.378242</v>
+      </c>
+      <c r="E27">
+        <v>99.97</v>
+      </c>
+      <c r="H27" s="1">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27">
+        <v>0.261519</v>
+      </c>
+      <c r="L27">
+        <v>99.81999999999999</v>
+      </c>
+      <c r="O27" s="1">
+        <v>39</v>
+      </c>
+      <c r="P27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27">
+        <v>1.652103</v>
+      </c>
+      <c r="S27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>4.186327</v>
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
       </c>
       <c r="D28">
+        <v>19.583391</v>
+      </c>
+      <c r="E28">
+        <v>99.97</v>
+      </c>
+      <c r="H28" s="1">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28">
+        <v>0.269111</v>
+      </c>
+      <c r="L28">
+        <v>99.83</v>
+      </c>
+      <c r="O28" s="1">
+        <v>38</v>
+      </c>
+      <c r="P28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28">
+        <v>1.654471</v>
+      </c>
+      <c r="S28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>4.160187</v>
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
       </c>
       <c r="D29">
+        <v>19.634459</v>
+      </c>
+      <c r="E29">
+        <v>97.75</v>
+      </c>
+      <c r="H29" s="1">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29">
+        <v>0.272631</v>
+      </c>
+      <c r="L29">
+        <v>92.64</v>
+      </c>
+      <c r="O29" s="1">
+        <v>37</v>
+      </c>
+      <c r="P29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29">
+        <v>1.6555</v>
+      </c>
+      <c r="S29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>4.147424</v>
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>19.746051</v>
+      </c>
+      <c r="E30">
+        <v>97.76000000000001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30">
+        <v>0.271161</v>
+      </c>
+      <c r="L30">
+        <v>92.58</v>
+      </c>
+      <c r="O30" s="1">
+        <v>36</v>
+      </c>
+      <c r="P30" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R30">
+        <v>1.654251</v>
+      </c>
+      <c r="S30">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <v>4.165726</v>
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>19.93895</v>
+      </c>
+      <c r="E31">
+        <v>97.78</v>
+      </c>
+      <c r="H31" s="1">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31">
+        <v>0.274938</v>
+      </c>
+      <c r="L31">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="O31" s="1">
+        <v>35</v>
+      </c>
+      <c r="P31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31">
+        <v>1.651166</v>
+      </c>
+      <c r="S31">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>4.200377</v>
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>19.842282</v>
+      </c>
+      <c r="E32">
+        <v>97.83</v>
+      </c>
+      <c r="H32" s="1">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32">
+        <v>0.286747</v>
+      </c>
+      <c r="L32">
+        <v>93.06999999999999</v>
+      </c>
+      <c r="O32" s="1">
+        <v>34</v>
+      </c>
+      <c r="P32" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32">
+        <v>1.652053</v>
+      </c>
+      <c r="S32">
+        <v>16.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>4.228343</v>
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>20.271669</v>
+      </c>
+      <c r="E33">
+        <v>97.87</v>
+      </c>
+      <c r="H33" s="1">
+        <v>33</v>
+      </c>
+      <c r="I33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33">
+        <v>0.283446</v>
+      </c>
+      <c r="L33">
+        <v>92.98</v>
+      </c>
+      <c r="O33" s="1">
+        <v>33</v>
+      </c>
+      <c r="P33" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33">
+        <v>1.655185</v>
+      </c>
+      <c r="S33">
+        <v>18.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34">
-        <v>4.226999</v>
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>21.451565</v>
+      </c>
+      <c r="E34">
+        <v>97.98</v>
+      </c>
+      <c r="H34" s="1">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34">
+        <v>0.280358</v>
+      </c>
+      <c r="L34">
+        <v>92.95</v>
+      </c>
+      <c r="O34" s="1">
+        <v>32</v>
+      </c>
+      <c r="P34" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34">
+        <v>1.659922</v>
+      </c>
+      <c r="S34">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35">
-        <v>4.222917</v>
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>22.835204</v>
+      </c>
+      <c r="E35">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="H35" s="1">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35">
+        <v>0.277977</v>
+      </c>
+      <c r="L35">
+        <v>92.88</v>
+      </c>
+      <c r="O35" s="1">
+        <v>31</v>
+      </c>
+      <c r="P35" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>38</v>
+      </c>
+      <c r="R35">
+        <v>1.662797</v>
+      </c>
+      <c r="S35">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>4.251195</v>
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>21.948043</v>
+      </c>
+      <c r="E36">
+        <v>98.03</v>
+      </c>
+      <c r="H36" s="1">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36">
+        <v>0.278705</v>
+      </c>
+      <c r="L36">
+        <v>92.73999999999999</v>
+      </c>
+      <c r="O36" s="1">
+        <v>30</v>
+      </c>
+      <c r="P36" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R36">
+        <v>1.667773</v>
+      </c>
+      <c r="S36">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>4.240897</v>
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>23.503968</v>
+      </c>
+      <c r="E37">
+        <v>97.87</v>
+      </c>
+      <c r="H37" s="1">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <v>0.277695</v>
+      </c>
+      <c r="L37">
+        <v>92.27</v>
+      </c>
+      <c r="O37" s="1">
+        <v>29</v>
+      </c>
+      <c r="P37" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37">
+        <v>1.65744</v>
+      </c>
+      <c r="S37">
+        <v>21.32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38">
-        <v>4.185356</v>
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>24.310888</v>
+      </c>
+      <c r="E38">
+        <v>97.95</v>
+      </c>
+      <c r="H38" s="1">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38">
+        <v>0.277776</v>
+      </c>
+      <c r="L38">
+        <v>92.27</v>
+      </c>
+      <c r="O38" s="1">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>41</v>
+      </c>
+      <c r="R38">
+        <v>1.654563</v>
+      </c>
+      <c r="S38">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39">
-        <v>4.163286</v>
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>24.486272</v>
+      </c>
+      <c r="E39">
+        <v>97.93000000000001</v>
+      </c>
+      <c r="H39" s="1">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39">
+        <v>0.273057</v>
+      </c>
+      <c r="L39">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="O39" s="1">
+        <v>27</v>
+      </c>
+      <c r="P39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39">
+        <v>1.646844</v>
+      </c>
+      <c r="S39">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40">
-        <v>4.202495</v>
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>23.715416</v>
+      </c>
+      <c r="E40">
+        <v>99.97</v>
+      </c>
+      <c r="H40" s="1">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40">
+        <v>0.258995</v>
+      </c>
+      <c r="L40">
+        <v>99.70999999999999</v>
+      </c>
+      <c r="O40" s="1">
+        <v>26</v>
+      </c>
+      <c r="P40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40">
+        <v>1.623862</v>
+      </c>
+      <c r="S40">
+        <v>18.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41">
-        <v>4.189527</v>
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>22.56444</v>
+      </c>
+      <c r="E41">
+        <v>99.95</v>
+      </c>
+      <c r="H41" s="1">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41">
+        <v>0.252776</v>
+      </c>
+      <c r="L41">
+        <v>99.59</v>
+      </c>
+      <c r="O41" s="1">
+        <v>25</v>
+      </c>
+      <c r="P41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41">
+        <v>1.629974</v>
+      </c>
+      <c r="S41">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42">
-        <v>4.169325</v>
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
       </c>
       <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>23.192455</v>
+      </c>
+      <c r="E42">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="H42" s="1">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42">
+        <v>0.275588</v>
+      </c>
+      <c r="L42">
+        <v>99.62</v>
+      </c>
+      <c r="O42" s="1">
+        <v>24</v>
+      </c>
+      <c r="P42" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42">
+        <v>1.640055</v>
+      </c>
+      <c r="S42">
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43">
-        <v>4.133294</v>
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
       </c>
       <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>23.586583</v>
+      </c>
+      <c r="E43">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="H43" s="1">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43">
+        <v>0.2712</v>
+      </c>
+      <c r="L43">
+        <v>99.64</v>
+      </c>
+      <c r="O43" s="1">
+        <v>23</v>
+      </c>
+      <c r="P43" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>46</v>
+      </c>
+      <c r="R43">
+        <v>1.629088</v>
+      </c>
+      <c r="S43">
+        <v>18.82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44">
-        <v>4.122394</v>
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
       </c>
       <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>22.681498</v>
+      </c>
+      <c r="E44">
+        <v>99.95</v>
+      </c>
+      <c r="H44" s="1">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44">
+        <v>0.247593</v>
+      </c>
+      <c r="L44">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="O44" s="1">
+        <v>22</v>
+      </c>
+      <c r="P44" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>47</v>
+      </c>
+      <c r="R44">
+        <v>1.607948</v>
+      </c>
+      <c r="S44">
+        <v>16.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45">
-        <v>4.101279</v>
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>22.679578</v>
+      </c>
+      <c r="E45">
+        <v>99.95</v>
+      </c>
+      <c r="H45" s="1">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45">
+        <v>0.247572</v>
+      </c>
+      <c r="L45">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="O45" s="1">
+        <v>21</v>
+      </c>
+      <c r="P45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>48</v>
+      </c>
+      <c r="R45">
+        <v>1.608697</v>
+      </c>
+      <c r="S45">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46">
-        <v>4.140752</v>
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>22.677658</v>
+      </c>
+      <c r="E46">
+        <v>99.95</v>
+      </c>
+      <c r="H46" s="1">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46">
+        <v>0.247551</v>
+      </c>
+      <c r="L46">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="O46" s="1">
+        <v>20</v>
+      </c>
+      <c r="P46" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46">
+        <v>1.6096</v>
+      </c>
+      <c r="S46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47">
-        <v>4.08842</v>
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>22.671896</v>
+      </c>
+      <c r="E47">
+        <v>99.95</v>
+      </c>
+      <c r="H47" s="1">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47">
+        <v>0.247487</v>
+      </c>
+      <c r="L47">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="O47" s="1">
+        <v>19</v>
+      </c>
+      <c r="P47" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>50</v>
+      </c>
+      <c r="R47">
+        <v>1.611487</v>
+      </c>
+      <c r="S47">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48">
-        <v>4.097641</v>
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>22.669982</v>
+      </c>
+      <c r="E48">
+        <v>99.95</v>
+      </c>
+      <c r="H48" s="1">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48">
+        <v>0.247467</v>
+      </c>
+      <c r="L48">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="O48" s="1">
+        <v>18</v>
+      </c>
+      <c r="P48" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>51</v>
+      </c>
+      <c r="R48">
+        <v>1.613188</v>
+      </c>
+      <c r="S48">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49">
-        <v>4.085471</v>
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>22.667854</v>
+      </c>
+      <c r="E49">
+        <v>99.95</v>
+      </c>
+      <c r="H49" s="1">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+      <c r="J49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49">
+        <v>0.247443</v>
+      </c>
+      <c r="L49">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="O49" s="1">
+        <v>17</v>
+      </c>
+      <c r="P49" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R49">
+        <v>1.613992</v>
+      </c>
+      <c r="S49">
+        <v>16.94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50">
-        <v>4.107755</v>
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>23.10132</v>
+      </c>
+      <c r="E50">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H50" s="1">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50">
+        <v>0.270566</v>
+      </c>
+      <c r="L50">
+        <v>99.95</v>
+      </c>
+      <c r="O50" s="1">
+        <v>16</v>
+      </c>
+      <c r="P50" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>53</v>
+      </c>
+      <c r="R50">
+        <v>1.638902</v>
+      </c>
+      <c r="S50">
+        <v>18.15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51">
-        <v>4.083678</v>
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>23.107287</v>
+      </c>
+      <c r="E51">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H51" s="1">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" t="s">
+        <v>54</v>
+      </c>
+      <c r="K51">
+        <v>0.269949</v>
+      </c>
+      <c r="L51">
+        <v>99.95</v>
+      </c>
+      <c r="O51" s="1">
+        <v>15</v>
+      </c>
+      <c r="P51" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>54</v>
+      </c>
+      <c r="R51">
+        <v>1.615289</v>
+      </c>
+      <c r="S51">
+        <v>17.14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52">
-        <v>4.034702</v>
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>22.412332</v>
+      </c>
+      <c r="E52">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H52" s="1">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>70</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52">
+        <v>0.268268</v>
+      </c>
+      <c r="L52">
+        <v>99.95</v>
+      </c>
+      <c r="O52" s="1">
+        <v>14</v>
+      </c>
+      <c r="P52" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>55</v>
+      </c>
+      <c r="R52">
+        <v>1.611229</v>
+      </c>
+      <c r="S52">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53">
-        <v>4.039163</v>
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
       </c>
       <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>21.539038</v>
+      </c>
+      <c r="E53">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H53" s="1">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>70</v>
+      </c>
+      <c r="J53" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53">
+        <v>0.26858</v>
+      </c>
+      <c r="L53">
+        <v>99.84</v>
+      </c>
+      <c r="O53" s="1">
+        <v>13</v>
+      </c>
+      <c r="P53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53">
+        <v>1.617873</v>
+      </c>
+      <c r="S53">
+        <v>18.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54">
-        <v>4.005506</v>
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
       </c>
       <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>21.236185</v>
+      </c>
+      <c r="E54">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H54" s="1">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54">
+        <v>0.266672</v>
+      </c>
+      <c r="L54">
+        <v>99.84</v>
+      </c>
+      <c r="O54" s="1">
+        <v>12</v>
+      </c>
+      <c r="P54" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>57</v>
+      </c>
+      <c r="R54">
+        <v>1.620515</v>
+      </c>
+      <c r="S54">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55">
-        <v>3.989497</v>
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>22.272145</v>
+      </c>
+      <c r="E55">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H55" s="1">
+        <v>11</v>
+      </c>
+      <c r="I55" t="s">
+        <v>70</v>
+      </c>
+      <c r="J55" t="s">
+        <v>58</v>
+      </c>
+      <c r="K55">
+        <v>0.270049</v>
+      </c>
+      <c r="L55">
+        <v>99.84</v>
+      </c>
+      <c r="O55" s="1">
+        <v>11</v>
+      </c>
+      <c r="P55" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>58</v>
+      </c>
+      <c r="R55">
+        <v>1.614722</v>
+      </c>
+      <c r="S55">
+        <v>18.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56">
-        <v>3.987144</v>
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
       </c>
       <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>22.278181</v>
+      </c>
+      <c r="E56">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H56" s="1">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" t="s">
+        <v>59</v>
+      </c>
+      <c r="K56">
+        <v>0.271182</v>
+      </c>
+      <c r="L56">
+        <v>99.84</v>
+      </c>
+      <c r="O56" s="1">
+        <v>10</v>
+      </c>
+      <c r="P56" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>59</v>
+      </c>
+      <c r="R56">
+        <v>1.622219</v>
+      </c>
+      <c r="S56">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57">
-        <v>3.944496</v>
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
       </c>
       <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>22.185394</v>
+      </c>
+      <c r="E57">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H57" s="1">
+        <v>9</v>
+      </c>
+      <c r="I57" t="s">
+        <v>70</v>
+      </c>
+      <c r="J57" t="s">
+        <v>60</v>
+      </c>
+      <c r="K57">
+        <v>0.267978</v>
+      </c>
+      <c r="L57">
+        <v>99.84</v>
+      </c>
+      <c r="O57" s="1">
+        <v>9</v>
+      </c>
+      <c r="P57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>60</v>
+      </c>
+      <c r="R57">
+        <v>1.653609</v>
+      </c>
+      <c r="S57">
+        <v>19.51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="1">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58">
-        <v>3.960071</v>
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
       </c>
       <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>22.349837</v>
+      </c>
+      <c r="E58">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H58" s="1">
+        <v>8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J58" t="s">
+        <v>61</v>
+      </c>
+      <c r="K58">
+        <v>0.289067</v>
+      </c>
+      <c r="L58">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="O58" s="1">
+        <v>8</v>
+      </c>
+      <c r="P58" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>61</v>
+      </c>
+      <c r="R58">
+        <v>1.65858</v>
+      </c>
+      <c r="S58">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1">
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59">
-        <v>3.958944</v>
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
       </c>
       <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>22.33466</v>
+      </c>
+      <c r="E59">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H59" s="1">
+        <v>7</v>
+      </c>
+      <c r="I59" t="s">
+        <v>70</v>
+      </c>
+      <c r="J59" t="s">
+        <v>62</v>
+      </c>
+      <c r="K59">
+        <v>0.292688</v>
+      </c>
+      <c r="L59">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="O59" s="1">
+        <v>7</v>
+      </c>
+      <c r="P59" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>62</v>
+      </c>
+      <c r="R59">
+        <v>1.662601</v>
+      </c>
+      <c r="S59">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1">
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60">
-        <v>4.020738</v>
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
       </c>
       <c r="D60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>22.34984</v>
+      </c>
+      <c r="E60">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H60" s="1">
+        <v>6</v>
+      </c>
+      <c r="I60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K60">
+        <v>0.294294</v>
+      </c>
+      <c r="L60">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="O60" s="1">
+        <v>6</v>
+      </c>
+      <c r="P60" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>63</v>
+      </c>
+      <c r="R60">
+        <v>1.664595</v>
+      </c>
+      <c r="S60">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="1">
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61">
-        <v>4.027205</v>
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
       </c>
       <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>21.818383</v>
+      </c>
+      <c r="E61">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H61" s="1">
+        <v>5</v>
+      </c>
+      <c r="I61" t="s">
+        <v>70</v>
+      </c>
+      <c r="J61" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61">
+        <v>0.295301</v>
+      </c>
+      <c r="L61">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="O61" s="1">
+        <v>5</v>
+      </c>
+      <c r="P61" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>64</v>
+      </c>
+      <c r="R61">
+        <v>1.669275</v>
+      </c>
+      <c r="S61">
+        <v>17.89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="1">
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62">
-        <v>4.017387</v>
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>20.834127</v>
+      </c>
+      <c r="E62">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H62" s="1">
+        <v>4</v>
+      </c>
+      <c r="I62" t="s">
+        <v>70</v>
+      </c>
+      <c r="J62" t="s">
+        <v>65</v>
+      </c>
+      <c r="K62">
+        <v>0.289097</v>
+      </c>
+      <c r="L62">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="O62" s="1">
+        <v>4</v>
+      </c>
+      <c r="P62" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>65</v>
+      </c>
+      <c r="R62">
+        <v>1.676415</v>
+      </c>
+      <c r="S62">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="1">
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63">
-        <v>4.017335</v>
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
       </c>
       <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>21.649502</v>
+      </c>
+      <c r="E63">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H63" s="1">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>70</v>
+      </c>
+      <c r="J63" t="s">
+        <v>66</v>
+      </c>
+      <c r="K63">
+        <v>0.309988</v>
+      </c>
+      <c r="L63">
+        <v>99.86</v>
+      </c>
+      <c r="O63" s="1">
+        <v>3</v>
+      </c>
+      <c r="P63" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>66</v>
+      </c>
+      <c r="R63">
+        <v>1.682066</v>
+      </c>
+      <c r="S63">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="1">
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64">
-        <v>4.01857</v>
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
       </c>
       <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>21.347812</v>
+      </c>
+      <c r="E64">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>70</v>
+      </c>
+      <c r="J64" t="s">
+        <v>67</v>
+      </c>
+      <c r="K64">
+        <v>0.308653</v>
+      </c>
+      <c r="L64">
+        <v>99.87</v>
+      </c>
+      <c r="O64" s="1">
+        <v>2</v>
+      </c>
+      <c r="P64" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>67</v>
+      </c>
+      <c r="R64">
+        <v>1.690207</v>
+      </c>
+      <c r="S64">
+        <v>24.97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="1">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65">
-        <v>4.013303</v>
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
       </c>
       <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>21.592713</v>
+      </c>
+      <c r="E65">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>70</v>
+      </c>
+      <c r="J65" t="s">
+        <v>68</v>
+      </c>
+      <c r="K65">
+        <v>0.330204</v>
+      </c>
+      <c r="L65">
+        <v>99.88</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+      <c r="P65" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>68</v>
+      </c>
+      <c r="R65">
+        <v>1.692465</v>
+      </c>
+      <c r="S65">
+        <v>22.76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="1">
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66">
-        <v>4.022583</v>
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
       </c>
       <c r="D66">
+        <v>21.394013</v>
+      </c>
+      <c r="E66">
+        <v>99.95999999999999</v>
+      </c>
+      <c r="H66" s="1">
         <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>70</v>
+      </c>
+      <c r="J66" t="s">
+        <v>69</v>
+      </c>
+      <c r="K66">
+        <v>0.331992</v>
+      </c>
+      <c r="L66">
+        <v>99.54000000000001</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>69</v>
+      </c>
+      <c r="R66">
+        <v>1.69839</v>
+      </c>
+      <c r="S66">
+        <v>24.39</v>
       </c>
     </row>
   </sheetData>
